--- a/StudentDetails.xlsx
+++ b/StudentDetails.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cathechism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2B4418-E9C8-4FF7-B1C1-07E02D583248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="student" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -34,9 +33,6 @@
     <t>House Name</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>Baptism Name</t>
   </si>
   <si>
@@ -46,16 +42,10 @@
     <t>Contact Number</t>
   </si>
   <si>
-    <t>Class</t>
-  </si>
-  <si>
     <t>Mother's Name</t>
   </si>
   <si>
     <t>Father's Name</t>
-  </si>
-  <si>
-    <t>Re-Password</t>
   </si>
   <si>
     <t>Male</t>
@@ -70,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -917,11 +907,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -933,24 +923,24 @@
     <col min="5" max="5" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="36" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="9" max="12" width="26.77734375" customWidth="1"/>
+    <col min="8" max="9" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -962,84 +952,72 @@
         <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>1</v>
+      </c>
+      <c r="O1">
+        <v>2</v>
+      </c>
+      <c r="P1">
+        <v>3</v>
+      </c>
+      <c r="Q1">
+        <v>4</v>
+      </c>
+      <c r="R1">
+        <v>5</v>
+      </c>
+      <c r="S1">
+        <v>6</v>
+      </c>
+      <c r="T1">
+        <v>7</v>
+      </c>
+      <c r="U1">
+        <v>8</v>
+      </c>
+      <c r="V1">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="W1">
+        <v>10</v>
+      </c>
+      <c r="X1">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Y1">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1">
-        <v>1</v>
-      </c>
-      <c r="R1">
-        <v>2</v>
-      </c>
-      <c r="S1">
-        <v>3</v>
-      </c>
-      <c r="T1">
-        <v>4</v>
-      </c>
-      <c r="U1">
-        <v>5</v>
-      </c>
-      <c r="V1">
-        <v>6</v>
-      </c>
-      <c r="W1">
-        <v>7</v>
-      </c>
-      <c r="X1">
-        <v>8</v>
-      </c>
-      <c r="Y1">
-        <v>9</v>
-      </c>
-      <c r="Z1">
-        <v>10</v>
-      </c>
-      <c r="AA1">
-        <v>11</v>
-      </c>
-      <c r="AB1">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="F3" s="3"/>
       <c r="G3" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{17B7C855-4100-4974-971D-3A4DA817020D}">
-      <formula1>$N$1:$P$1</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>$K$1:$M$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{A0829C4D-65FC-4B79-A238-7F46C949EAC5}">
-      <formula1>$Q$1:$AB$1</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{5257B7DB-3284-42E2-9AF1-7963F369BFC5}">
+    <dataValidation type="date" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
       <formula1>G1&lt;=TODAY()</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{1C04360F-031D-4042-A412-155C6DCED2B9}">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>10</formula1>
     </dataValidation>
   </dataValidations>
